--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ocelot\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ocelot\ocelot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$56</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="134">
   <si>
     <t>parent</t>
   </si>
@@ -116,9 +116,6 @@
     <t>700: macroEconomicScenarioId</t>
   </si>
   <si>
-    <t>600: startDate, and 610: endDate</t>
-  </si>
-  <si>
     <t>115: specialActivityType</t>
   </si>
   <si>
@@ -356,15 +353,6 @@
     <t>completeness</t>
   </si>
   <si>
-    <t>temporalCorrelation</t>
-  </si>
-  <si>
-    <t>geographicalCorrelation</t>
-  </si>
-  <si>
-    <t>furtherTechnologyCorrelation</t>
-  </si>
-  <si>
     <t>uncertainty type</t>
   </si>
   <si>
@@ -390,6 +378,57 @@
   </si>
   <si>
     <t>1705: parameterId</t>
+  </si>
+  <si>
+    <t>600: startDate</t>
+  </si>
+  <si>
+    <t>610: endDate</t>
+  </si>
+  <si>
+    <t>102: id</t>
+  </si>
+  <si>
+    <t>2271: reliability</t>
+  </si>
+  <si>
+    <t>2272: completeness</t>
+  </si>
+  <si>
+    <t>2273: temporalCorrelation</t>
+  </si>
+  <si>
+    <t>2274: geographicalCorrelation</t>
+  </si>
+  <si>
+    <t>2275: furtherTechnologyCorrelation</t>
+  </si>
+  <si>
+    <t>temporal correlation</t>
+  </si>
+  <si>
+    <t>geographical correlation</t>
+  </si>
+  <si>
+    <t>further technology correlation</t>
+  </si>
+  <si>
+    <t>1700: name</t>
+  </si>
+  <si>
+    <t>parameter id</t>
+  </si>
+  <si>
+    <t>exchange id</t>
+  </si>
+  <si>
+    <t>parameter name</t>
+  </si>
+  <si>
+    <t>2310: name</t>
+  </si>
+  <si>
+    <t>property name</t>
   </si>
 </sst>
 </file>
@@ -716,18 +755,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G61"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.109375" customWidth="1"/>
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
     <col min="6" max="6" width="36.33203125" customWidth="1"/>
     <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
@@ -738,7 +778,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -758,110 +798,113 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>16</v>
       </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
+      <c r="F2" t="s">
+        <v>32</v>
+      </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" t="s">
+        <v>34</v>
+      </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
         <v>101</v>
       </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
       <c r="G4" t="s">
-        <v>6</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>16</v>
@@ -869,128 +912,119 @@
       <c r="E7" t="s">
         <v>18</v>
       </c>
-      <c r="F7" t="s">
-        <v>28</v>
-      </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" t="s">
-        <v>113</v>
-      </c>
       <c r="E8" t="s">
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G10" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C11" t="s">
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
       <c r="G12" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -999,515 +1033,530 @@
         <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="E14" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>27</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>68</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
+      <c r="F21" t="s">
+        <v>54</v>
+      </c>
       <c r="G21" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="G22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>16</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G23" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>67</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
-      <c r="F24" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>59</v>
-      </c>
-      <c r="G25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" t="s">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
-      </c>
-      <c r="G29" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="G30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>104</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" t="s">
         <v>51</v>
       </c>
-      <c r="C31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>105</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>116</v>
+      </c>
+      <c r="G33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C34" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>128</v>
+      </c>
+      <c r="G35" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
         <v>52</v>
       </c>
-      <c r="E32" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" t="s">
-        <v>114</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>104</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38" t="s">
+        <v>39</v>
+      </c>
+      <c r="C38" t="s">
+        <v>51</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>105</v>
-      </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
-      <c r="C33" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" t="s">
-        <v>18</v>
-      </c>
-      <c r="F33" t="s">
-        <v>120</v>
-      </c>
-      <c r="G33" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>16</v>
-      </c>
-      <c r="E34" t="s">
-        <v>19</v>
-      </c>
-      <c r="F34" t="s">
-        <v>115</v>
-      </c>
-      <c r="G34" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" t="s">
-        <v>19</v>
-      </c>
-      <c r="F35" t="s">
-        <v>116</v>
-      </c>
-      <c r="G35" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" t="s">
-        <v>53</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" t="s">
-        <v>4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>52</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" t="s">
-        <v>42</v>
       </c>
       <c r="C39" t="s">
         <v>16</v>
@@ -1519,18 +1568,18 @@
         <v>75</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C40" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
@@ -1538,53 +1587,53 @@
       <c r="F40" t="s">
         <v>76</v>
       </c>
-      <c r="G40" t="s">
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>74</v>
+      </c>
+      <c r="G41" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="B42" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" t="s">
         <v>51</v>
       </c>
-      <c r="B42" t="s">
-        <v>40</v>
-      </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
       <c r="E42" t="s">
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>16</v>
@@ -1596,58 +1645,58 @@
         <v>96</v>
       </c>
       <c r="G43" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>50</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" t="s">
+        <v>98</v>
+      </c>
+      <c r="G44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>51</v>
-      </c>
-      <c r="B44" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" t="s">
-        <v>16</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>97</v>
-      </c>
-      <c r="G44" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>51</v>
-      </c>
-      <c r="B45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" t="s">
-        <v>98</v>
-      </c>
-      <c r="G45" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>41</v>
-      </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="E46" t="s">
         <v>19</v>
@@ -1655,299 +1704,339 @@
       <c r="F46" t="s">
         <v>99</v>
       </c>
-      <c r="G46" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+      <c r="G47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
       </c>
-      <c r="D48" t="s">
-        <v>87</v>
-      </c>
       <c r="E48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="G48" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>107</v>
       </c>
       <c r="C49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>121</v>
       </c>
       <c r="G49" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="C50" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
       <c r="G50" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="C51" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
       <c r="G51" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="C52" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F52" t="s">
+        <v>91</v>
       </c>
       <c r="G52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="E53" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="F53" t="s">
+        <v>88</v>
       </c>
       <c r="G53" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C55" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B56" t="s">
         <v>81</v>
       </c>
       <c r="C56" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G56" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B57" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" t="s">
+        <v>105</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>120</v>
+      </c>
+      <c r="G57" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
         <v>82</v>
       </c>
-      <c r="C57" t="s">
-        <v>52</v>
-      </c>
-      <c r="E57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F57" t="s">
+      <c r="C58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E58" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" t="s">
         <v>82</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>50</v>
-      </c>
-      <c r="B58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C58" t="s">
-        <v>52</v>
-      </c>
-      <c r="E58" t="s">
-        <v>19</v>
-      </c>
-      <c r="F58" t="s">
-        <v>83</v>
-      </c>
-      <c r="G58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B59" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C59" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="E59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="G59" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B60" t="s">
-        <v>85</v>
+        <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>52</v>
+        <v>16</v>
+      </c>
+      <c r="D60" t="s">
+        <v>86</v>
       </c>
       <c r="E60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F60" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="C61" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="G61" t="s">
-        <v>86</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" t="s">
+        <v>51</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G56">
-    <sortState ref="A2:G60">
-      <sortCondition ref="A1:A55"/>
+  <autoFilter ref="A1:G62">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="dataset"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:G62">
+      <sortCondition ref="A1:A62"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
   <si>
     <t>parent</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>property name</t>
+  </si>
+  <si>
+    <t>mean</t>
   </si>
 </sst>
 </file>
@@ -760,7 +763,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -796,7 +799,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -819,7 +822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -839,7 +842,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -859,7 +862,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -882,7 +885,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -899,7 +902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -916,7 +919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -936,7 +939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -956,7 +959,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -979,7 +982,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -999,7 +1002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -1019,7 +1022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1059,7 +1062,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1082,7 +1085,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>104</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>104</v>
       </c>
@@ -1454,7 +1457,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -1474,7 +1477,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>104</v>
       </c>
@@ -1494,7 +1497,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>104</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>104</v>
       </c>
@@ -1522,7 +1525,7 @@
         <v>16</v>
       </c>
       <c r="E37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F37" t="s">
         <v>111</v>
@@ -1830,7 +1833,7 @@
         <v>49</v>
       </c>
       <c r="B53" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
@@ -2032,7 +2035,7 @@
   <autoFilter ref="A1:G62">
     <filterColumn colId="0">
       <filters>
-        <filter val="dataset"/>
+        <filter val="parameters"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:G62">

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -758,12 +758,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -799,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>100</v>
       </c>
@@ -822,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -842,7 +841,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>100</v>
       </c>
@@ -862,7 +861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>100</v>
       </c>
@@ -885,7 +884,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>100</v>
       </c>
@@ -902,7 +901,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>100</v>
       </c>
@@ -919,7 +918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -939,7 +938,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>100</v>
       </c>
@@ -959,7 +958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>100</v>
       </c>
@@ -982,7 +981,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>100</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>100</v>
       </c>
@@ -1022,7 +1021,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>100</v>
       </c>
@@ -1039,7 +1038,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>100</v>
       </c>
@@ -1062,7 +1061,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>100</v>
       </c>
@@ -1085,7 +1084,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>100</v>
       </c>
@@ -1108,7 +1107,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -1131,7 +1130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -1151,7 +1150,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -1174,7 +1173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -1197,7 +1196,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1220,7 +1219,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1260,7 +1259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1276,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1293,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -1340,7 +1339,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1360,7 +1359,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -1377,7 +1376,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1397,7 +1396,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1534,7 +1533,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>44</v>
       </c>
@@ -1554,7 +1553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>44</v>
       </c>
@@ -1574,7 +1573,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
@@ -1591,7 +1590,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -1611,7 +1610,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>50</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>50</v>
       </c>
@@ -1671,7 +1670,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>50</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>50</v>
       </c>
@@ -1728,7 +1727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1748,7 +1747,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
@@ -1768,7 +1767,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1788,7 +1787,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1808,7 +1807,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -1828,7 +1827,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -1848,7 +1847,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -1868,7 +1867,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -1888,7 +1887,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -1908,7 +1907,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -1928,7 +1927,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -1948,7 +1947,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +1967,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -1991,7 +1990,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>49</v>
       </c>
@@ -2011,7 +2010,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -2033,11 +2032,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:G62">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="parameters"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:G62">
       <sortCondition ref="A1:A62"/>
     </sortState>

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="137">
   <si>
     <t>parent</t>
   </si>
@@ -92,9 +92,6 @@
     <t>100: activityName</t>
   </si>
   <si>
-    <t>in dataframe</t>
-  </si>
-  <si>
     <t>activity name</t>
   </si>
   <si>
@@ -432,6 +429,15 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>standard deviation 95%</t>
+  </si>
+  <si>
+    <t>standardDeviation95</t>
+  </si>
+  <si>
+    <t>in data frame</t>
   </si>
 </sst>
 </file>
@@ -758,11 +764,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -795,12 +802,12 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -809,21 +816,21 @@
         <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -832,7 +839,7 @@
         <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
@@ -841,13 +848,13 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4" t="s">
         <v>100</v>
       </c>
-      <c r="B4" t="s">
-        <v>101</v>
-      </c>
       <c r="C4" t="s">
         <v>16</v>
       </c>
@@ -855,38 +862,38 @@
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -895,15 +902,15 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -918,9 +925,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -932,15 +939,15 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -949,7 +956,7 @@
         <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E9" t="s">
         <v>18</v>
@@ -958,9 +965,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -969,21 +976,21 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -992,7 +999,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
@@ -1001,9 +1008,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1018,52 +1025,52 @@
         <v>20</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1072,21 +1079,21 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1095,108 +1102,108 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" t="s">
         <v>19</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E20" t="s">
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -1207,24 +1214,24 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>16</v>
@@ -1233,13 +1240,13 @@
         <v>19</v>
       </c>
       <c r="F22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1253,35 +1260,35 @@
         <v>18</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G23" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>17</v>
@@ -1290,56 +1297,56 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
       <c r="F26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G26" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" t="s">
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1350,38 +1357,38 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E29" t="s">
         <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
         <v>16</v>
@@ -1390,18 +1397,18 @@
         <v>18</v>
       </c>
       <c r="F30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C31" t="s">
         <v>16</v>
@@ -1410,35 +1417,35 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G31" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1450,18 +1457,18 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G33" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C34" t="s">
         <v>16</v>
@@ -1470,15 +1477,15 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G34" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1490,149 +1497,149 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G35" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>103</v>
+      </c>
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>72</v>
+      </c>
+      <c r="G38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>49</v>
       </c>
-      <c r="C36" t="s">
-        <v>52</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" t="s">
-        <v>41</v>
-      </c>
-      <c r="C37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E37" t="s">
-        <v>18</v>
-      </c>
-      <c r="F37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G37" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" t="s">
-        <v>51</v>
-      </c>
-      <c r="E38" t="s">
-        <v>18</v>
-      </c>
-      <c r="F38" t="s">
-        <v>73</v>
-      </c>
-      <c r="G38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" t="s">
-        <v>16</v>
-      </c>
-      <c r="E39" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>44</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="B42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>49</v>
-      </c>
-      <c r="C40" t="s">
-        <v>52</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>41</v>
-      </c>
-      <c r="C41" t="s">
-        <v>16</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>74</v>
-      </c>
-      <c r="G41" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B42" t="s">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" t="s">
-        <v>18</v>
-      </c>
-      <c r="F42" t="s">
-        <v>94</v>
-      </c>
-      <c r="G42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>50</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
@@ -1644,18 +1651,18 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G43" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
         <v>16</v>
@@ -1664,15 +1671,15 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G44" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
@@ -1684,35 +1691,35 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
+        <v>131</v>
+      </c>
+      <c r="G45" t="s">
         <v>132</v>
       </c>
-      <c r="G45" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>49</v>
       </c>
-      <c r="C46" t="s">
-        <v>52</v>
-      </c>
-      <c r="E46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>50</v>
-      </c>
       <c r="B47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C47" t="s">
         <v>16</v>
@@ -1721,18 +1728,18 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C48" t="s">
         <v>16</v>
@@ -1741,235 +1748,235 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C50" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G50" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C51" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E53" t="s">
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E54" t="s">
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G54" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G55" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
         <v>19</v>
       </c>
       <c r="F56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>119</v>
+      </c>
+      <c r="G57" t="s">
         <v>105</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>120</v>
-      </c>
-      <c r="G57" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E58" t="s">
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
@@ -1978,60 +1985,85 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
         <v>86</v>
       </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
-        <v>87</v>
-      </c>
       <c r="G60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E61" t="s">
         <v>19</v>
       </c>
       <c r="F61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E62" t="s">
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s">
-        <v>80</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" t="s">
+        <v>134</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" t="s">
+        <v>135</v>
+      </c>
+      <c r="G63" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G62">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="uncertainty"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:G62">
       <sortCondition ref="A1:A62"/>
     </sortState>

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ocelot\ocelot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ocelot\ocelot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="11412"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9096"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="139">
   <si>
     <t>parent</t>
   </si>
@@ -281,9 +281,6 @@
     <t>maximum</t>
   </si>
   <si>
-    <t>most likely value</t>
-  </si>
-  <si>
     <t>from list: ['normal', 'lognormal', 'triangular', 'uniform', 'undefined']</t>
   </si>
   <si>
@@ -438,6 +435,15 @@
   </si>
   <si>
     <t>in data frame</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>name of transformations as keys, time of execution as elements</t>
   </si>
 </sst>
 </file>
@@ -765,11 +771,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G49" sqref="G49"/>
+      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -787,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -802,12 +808,12 @@
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -828,9 +834,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -848,12 +854,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
         <v>99</v>
-      </c>
-      <c r="B4" t="s">
-        <v>100</v>
       </c>
       <c r="C4" t="s">
         <v>16</v>
@@ -865,35 +871,35 @@
         <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -908,9 +914,9 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -925,9 +931,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -939,15 +945,15 @@
         <v>18</v>
       </c>
       <c r="F8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s">
         <v>14</v>
@@ -965,9 +971,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
@@ -988,9 +994,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" t="s">
         <v>13</v>
@@ -1008,9 +1014,9 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
@@ -1028,12 +1034,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -1045,32 +1051,32 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" t="s">
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -1091,9 +1097,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1223,7 +1229,7 @@
         <v>53</v>
       </c>
       <c r="G21" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1297,7 +1303,7 @@
         <v>19</v>
       </c>
       <c r="F25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1425,7 +1431,7 @@
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
@@ -1437,7 +1443,7 @@
         <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -1445,7 +1451,7 @@
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
@@ -1457,15 +1463,15 @@
         <v>18</v>
       </c>
       <c r="F33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>39</v>
@@ -1477,7 +1483,7 @@
         <v>19</v>
       </c>
       <c r="F34" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G34" t="s">
         <v>39</v>
@@ -1485,7 +1491,7 @@
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
@@ -1497,15 +1503,15 @@
         <v>18</v>
       </c>
       <c r="F35" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G35" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B36" t="s">
         <v>48</v>
@@ -1517,12 +1523,12 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B37" t="s">
         <v>40</v>
@@ -1534,7 +1540,7 @@
         <v>18</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G37" t="s">
         <v>40</v>
@@ -1631,7 +1637,7 @@
         <v>18</v>
       </c>
       <c r="F42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -1651,10 +1657,10 @@
         <v>18</v>
       </c>
       <c r="F43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1671,7 +1677,7 @@
         <v>19</v>
       </c>
       <c r="F44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G44" t="s">
         <v>39</v>
@@ -1691,10 +1697,10 @@
         <v>18</v>
       </c>
       <c r="F45" t="s">
+        <v>130</v>
+      </c>
+      <c r="G45" t="s">
         <v>131</v>
-      </c>
-      <c r="G45" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1711,7 +1717,7 @@
         <v>19</v>
       </c>
       <c r="F46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1728,7 +1734,7 @@
         <v>18</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G47" t="s">
         <v>47</v>
@@ -1748,73 +1754,73 @@
         <v>19</v>
       </c>
       <c r="F48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G48" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C49" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
       </c>
       <c r="F49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C50" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
       </c>
       <c r="F50" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G50" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C51" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
       </c>
       <c r="F51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G51" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>48</v>
       </c>
@@ -1828,18 +1834,18 @@
         <v>19</v>
       </c>
       <c r="F52" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G52" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>48</v>
       </c>
       <c r="B53" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C53" t="s">
         <v>50</v>
@@ -1848,13 +1854,13 @@
         <v>19</v>
       </c>
       <c r="F53" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G53" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>48</v>
       </c>
@@ -1868,18 +1874,18 @@
         <v>19</v>
       </c>
       <c r="F54" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G54" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>48</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
@@ -1888,13 +1894,13 @@
         <v>19</v>
       </c>
       <c r="F55" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>48</v>
       </c>
@@ -1914,27 +1920,27 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>48</v>
       </c>
       <c r="B57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C57" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" t="s">
+        <v>18</v>
+      </c>
+      <c r="F57" t="s">
+        <v>118</v>
+      </c>
+      <c r="G57" t="s">
         <v>104</v>
       </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>119</v>
-      </c>
-      <c r="G57" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>48</v>
       </c>
@@ -1954,27 +1960,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>48</v>
       </c>
       <c r="B59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E59" t="s">
         <v>18</v>
       </c>
       <c r="F59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G59" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1985,19 +1991,19 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
         <v>85</v>
       </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
-        <v>86</v>
-      </c>
       <c r="G60" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -2017,7 +2023,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>48</v>
       </c>
@@ -2031,18 +2037,18 @@
         <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G62" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>48</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
@@ -2051,17 +2057,34 @@
         <v>19</v>
       </c>
       <c r="F63" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G63" t="s">
-        <v>134</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>98</v>
+      </c>
+      <c r="B64" t="s">
+        <v>137</v>
+      </c>
+      <c r="C64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G62">
+  <autoFilter ref="A1:G63">
     <filterColumn colId="0">
       <filters>
-        <filter val="uncertainty"/>
+        <filter val="dataset"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:G62">

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -68,9 +68,6 @@
     <t>allocation method</t>
   </si>
   <si>
-    <t>main reference product</t>
-  </si>
-  <si>
     <t>last operation</t>
   </si>
   <si>
@@ -444,6 +441,9 @@
   </si>
   <si>
     <t>name of transformations as keys, time of execution as elements</t>
+  </si>
+  <si>
+    <t>reference product</t>
   </si>
 </sst>
 </file>
@@ -775,7 +775,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C65" sqref="C65"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -802,33 +802,33 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -836,19 +836,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" t="s">
         <v>12</v>
@@ -856,76 +856,76 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" t="s">
         <v>98</v>
       </c>
-      <c r="B4" t="s">
-        <v>99</v>
-      </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
@@ -933,62 +933,62 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B10" t="s">
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
         <v>7</v>
@@ -996,102 +996,102 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
       <c r="C11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
         <v>20</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
         <v>8</v>
@@ -1099,25 +1099,25 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1125,22 +1125,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1148,19 +1148,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1168,22 +1168,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1191,22 +1191,22 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1217,19 +1217,19 @@
         <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1237,19 +1237,19 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1260,16 +1260,16 @@
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1277,16 +1277,16 @@
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1294,16 +1294,16 @@
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1311,22 +1311,22 @@
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1334,22 +1334,22 @@
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1360,16 +1360,16 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1377,16 +1377,16 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1394,19 +1394,19 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
@@ -1414,670 +1414,670 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G33" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" t="s">
         <v>5</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E35" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F35" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G35" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E40" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>37</v>
+      </c>
+      <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
-        <v>50</v>
-      </c>
       <c r="E42" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G42" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B43" t="s">
         <v>4</v>
       </c>
       <c r="C43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B45" t="s">
         <v>5</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
+        <v>129</v>
+      </c>
+      <c r="G45" t="s">
         <v>130</v>
-      </c>
-      <c r="G45" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E48" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G49" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E51" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G51" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E52" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E53" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E54" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F54" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C55" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F55" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G55" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E56" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="E57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>117</v>
+      </c>
+      <c r="G57" t="s">
         <v>103</v>
-      </c>
-      <c r="E57" t="s">
-        <v>18</v>
-      </c>
-      <c r="F57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G57" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E58" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E59" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B60" t="s">
         <v>10</v>
       </c>
       <c r="C60" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" t="s">
+        <v>17</v>
+      </c>
+      <c r="F60" t="s">
         <v>84</v>
       </c>
-      <c r="E60" t="s">
-        <v>18</v>
-      </c>
-      <c r="F60" t="s">
-        <v>85</v>
-      </c>
       <c r="G60" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
         <v>133</v>
       </c>
-      <c r="C63" t="s">
-        <v>50</v>
-      </c>
-      <c r="E63" t="s">
-        <v>19</v>
-      </c>
-      <c r="F63" t="s">
-        <v>134</v>
-      </c>
       <c r="G63" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B64" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
         <v>137</v>
       </c>
-      <c r="C64" t="s">
-        <v>51</v>
-      </c>
-      <c r="D64" t="s">
-        <v>138</v>
-      </c>
       <c r="E64" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$G$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$63</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="137">
   <si>
     <t>parent</t>
   </si>
@@ -68,9 +68,6 @@
     <t>allocation method</t>
   </si>
   <si>
-    <t>last operation</t>
-  </si>
-  <si>
     <t>mandatory/optional</t>
   </si>
   <si>
@@ -113,27 +110,15 @@
     <t>115: specialActivityType</t>
   </si>
   <si>
-    <t>from list: ['transforming activity', 'market activity', 'market group']</t>
-  </si>
-  <si>
-    <t>from list: ['undefined', 'new', 'modern', 'current', 'old', 'outdated']</t>
-  </si>
-  <si>
     <t>3550: accessRestrictedTo</t>
   </si>
   <si>
-    <t>from list: ['public', 'licensees', 'results only', 'restricted']</t>
-  </si>
-  <si>
     <t>determined by a function of name "allocation_method"</t>
   </si>
   <si>
     <t>for convenience, the name of the reference product.  If more than one, the product with the largest amount</t>
   </si>
   <si>
-    <t>name of the function that last modified the dataset</t>
-  </si>
-  <si>
     <t>unordered list of the exchanges</t>
   </si>
   <si>
@@ -236,9 +221,6 @@
     <t>from list: ['intermediateExchange', 'elementaryExchange']</t>
   </si>
   <si>
-    <t>exchange name</t>
-  </si>
-  <si>
     <t>exchange type</t>
   </si>
   <si>
@@ -362,9 +344,6 @@
     <t>1730: uncertainty</t>
   </si>
   <si>
-    <t>field</t>
-  </si>
-  <si>
     <t>property id</t>
   </si>
   <si>
@@ -413,15 +392,9 @@
     <t>exchange id</t>
   </si>
   <si>
-    <t>parameter name</t>
-  </si>
-  <si>
     <t>2310: name</t>
   </si>
   <si>
-    <t>property name</t>
-  </si>
-  <si>
     <t>mean</t>
   </si>
   <si>
@@ -444,6 +417,27 @@
   </si>
   <si>
     <t>reference product</t>
+  </si>
+  <si>
+    <t>allowed values</t>
+  </si>
+  <si>
+    <t>public, licensees, results only, restricted</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>in dataset</t>
+  </si>
+  <si>
+    <t>undefined, new, modern, current, old, outdated</t>
+  </si>
+  <si>
+    <t>transforming activity, market activity, market group</t>
+  </si>
+  <si>
+    <t>1712: unitName</t>
   </si>
 </sst>
 </file>
@@ -487,9 +481,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -771,588 +766,592 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:G64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" customWidth="1"/>
-    <col min="7" max="7" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.109375" customWidth="1"/>
+    <col min="6" max="6" width="21.44140625" customWidth="1"/>
+    <col min="7" max="7" width="36.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" t="s">
         <v>100</v>
       </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
       <c r="F5" t="s">
-        <v>115</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>109</v>
+      </c>
+      <c r="H8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>18</v>
       </c>
-      <c r="G11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>95</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="E12" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>99</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" t="s">
-        <v>17</v>
+        <v>134</v>
       </c>
       <c r="F14" t="s">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>17</v>
+        <v>135</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="E16" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
-      </c>
-      <c r="G16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="G17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
-      </c>
-      <c r="E18" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
-      <c r="D19" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" t="s">
-        <v>18</v>
-      </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="G19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="F20" t="s">
-        <v>56</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" t="s">
-        <v>63</v>
+        <v>14</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F21" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="H21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F22" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" t="s">
-        <v>17</v>
+        <v>58</v>
       </c>
       <c r="F23" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="G23" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="H23" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>9</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>65</v>
-      </c>
-      <c r="E24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>9</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G25" t="s">
+        <v>50</v>
+      </c>
+      <c r="H25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" t="s">
-        <v>64</v>
+        <v>14</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="G26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="H26" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C27" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="E27" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="H27" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -1360,735 +1359,738 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="E28" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="F28" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>50</v>
-      </c>
-      <c r="E29" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="H30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>54</v>
+        <v>16</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+      <c r="H31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>103</v>
+      </c>
+      <c r="H33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" t="s">
+        <v>5</v>
+      </c>
+      <c r="C34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>95</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s">
+        <v>16</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+      <c r="H36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>37</v>
       </c>
-      <c r="C32" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" t="s">
-        <v>107</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="B37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" t="s">
+        <v>65</v>
+      </c>
+      <c r="H37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="B38" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G38" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>42</v>
+      </c>
+      <c r="C39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>85</v>
+      </c>
+      <c r="H41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" t="s">
         <v>4</v>
       </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="E33" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s">
+        <v>16</v>
+      </c>
+      <c r="G42" t="s">
+        <v>87</v>
+      </c>
+      <c r="H42" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" t="s">
+        <v>121</v>
+      </c>
+      <c r="H44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" t="s">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>41</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>86</v>
+      </c>
+      <c r="H46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>88</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>96</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>111</v>
+      </c>
+      <c r="H49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
         <v>113</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H51" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>114</v>
+      </c>
+      <c r="H52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>82</v>
+      </c>
+      <c r="H53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>79</v>
+      </c>
+      <c r="H54" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>81</v>
+      </c>
+      <c r="H55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" t="s">
-        <v>15</v>
-      </c>
-      <c r="E34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" t="s">
-        <v>109</v>
-      </c>
-      <c r="G34" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>15</v>
-      </c>
-      <c r="E35" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" t="s">
-        <v>125</v>
-      </c>
-      <c r="G35" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" t="s">
-        <v>47</v>
-      </c>
-      <c r="C36" t="s">
-        <v>50</v>
-      </c>
-      <c r="E36" t="s">
-        <v>18</v>
-      </c>
-      <c r="F36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" t="s">
-        <v>15</v>
-      </c>
-      <c r="E37" t="s">
-        <v>17</v>
-      </c>
-      <c r="F37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="C56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>83</v>
+      </c>
+      <c r="H56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>42</v>
       </c>
-      <c r="B38" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" t="s">
-        <v>49</v>
-      </c>
-      <c r="E38" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" t="s">
+      <c r="B57" t="s">
+        <v>73</v>
+      </c>
+      <c r="C57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>73</v>
+      </c>
+      <c r="H57" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>74</v>
+      </c>
+      <c r="H58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>123</v>
+      </c>
+      <c r="C59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>124</v>
+      </c>
+      <c r="H59" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
         <v>71</v>
       </c>
-      <c r="G38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="C60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>71</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>42</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" t="s">
-        <v>73</v>
-      </c>
-      <c r="G39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="B61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>80</v>
+      </c>
+      <c r="H61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>42</v>
       </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="s">
-        <v>50</v>
-      </c>
-      <c r="E40" t="s">
-        <v>18</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" t="s">
-        <v>39</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>72</v>
-      </c>
-      <c r="G41" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>48</v>
-      </c>
-      <c r="B42" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>49</v>
-      </c>
-      <c r="E42" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" t="s">
-        <v>91</v>
-      </c>
-      <c r="G42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>48</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43" t="s">
-        <v>15</v>
-      </c>
-      <c r="E43" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" t="s">
-        <v>93</v>
-      </c>
-      <c r="G43" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" t="s">
-        <v>18</v>
-      </c>
-      <c r="F44" t="s">
-        <v>95</v>
-      </c>
-      <c r="G44" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>48</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>15</v>
-      </c>
-      <c r="E45" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="s">
-        <v>50</v>
-      </c>
-      <c r="E46" t="s">
-        <v>18</v>
-      </c>
-      <c r="F46" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" t="s">
-        <v>15</v>
-      </c>
-      <c r="E47" t="s">
-        <v>17</v>
-      </c>
-      <c r="F47" t="s">
-        <v>92</v>
-      </c>
-      <c r="G47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" t="s">
-        <v>39</v>
-      </c>
-      <c r="C48" t="s">
-        <v>15</v>
-      </c>
-      <c r="E48" t="s">
-        <v>18</v>
-      </c>
-      <c r="F48" t="s">
-        <v>94</v>
-      </c>
-      <c r="G48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="B49" t="s">
-        <v>104</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
-      </c>
-      <c r="E49" t="s">
-        <v>17</v>
-      </c>
-      <c r="F49" t="s">
-        <v>118</v>
-      </c>
-      <c r="G49" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" t="s">
-        <v>124</v>
-      </c>
-      <c r="C50" t="s">
-        <v>102</v>
-      </c>
-      <c r="E50" t="s">
-        <v>17</v>
-      </c>
-      <c r="F50" t="s">
-        <v>121</v>
-      </c>
-      <c r="G50" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>47</v>
-      </c>
-      <c r="B51" t="s">
-        <v>123</v>
-      </c>
-      <c r="C51" t="s">
-        <v>102</v>
-      </c>
-      <c r="E51" t="s">
-        <v>17</v>
-      </c>
-      <c r="F51" t="s">
-        <v>120</v>
-      </c>
-      <c r="G51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" t="s">
-        <v>82</v>
-      </c>
-      <c r="C52" t="s">
-        <v>49</v>
-      </c>
-      <c r="E52" t="s">
-        <v>18</v>
-      </c>
-      <c r="F52" t="s">
-        <v>88</v>
-      </c>
-      <c r="G52" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="B53" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" t="s">
-        <v>49</v>
-      </c>
-      <c r="E53" t="s">
-        <v>18</v>
-      </c>
-      <c r="F53" t="s">
-        <v>85</v>
-      </c>
-      <c r="G53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>47</v>
-      </c>
-      <c r="B54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C54" t="s">
-        <v>49</v>
-      </c>
-      <c r="E54" t="s">
-        <v>18</v>
-      </c>
-      <c r="F54" t="s">
-        <v>87</v>
-      </c>
-      <c r="G54" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>47</v>
-      </c>
-      <c r="B55" t="s">
-        <v>135</v>
-      </c>
-      <c r="C55" t="s">
-        <v>49</v>
-      </c>
-      <c r="E55" t="s">
-        <v>18</v>
-      </c>
-      <c r="F55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C56" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" t="s">
-        <v>18</v>
-      </c>
-      <c r="F56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>47</v>
-      </c>
-      <c r="B57" t="s">
-        <v>103</v>
-      </c>
-      <c r="C57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E57" t="s">
-        <v>17</v>
-      </c>
-      <c r="F57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G57" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>47</v>
-      </c>
-      <c r="B58" t="s">
-        <v>80</v>
-      </c>
-      <c r="C58" t="s">
-        <v>49</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>47</v>
-      </c>
-      <c r="B59" t="s">
-        <v>122</v>
-      </c>
-      <c r="C59" t="s">
-        <v>102</v>
-      </c>
-      <c r="E59" t="s">
-        <v>17</v>
-      </c>
-      <c r="F59" t="s">
-        <v>119</v>
-      </c>
-      <c r="G59" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>47</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="B62" t="s">
         <v>10</v>
       </c>
-      <c r="C60" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" t="s">
-        <v>83</v>
-      </c>
-      <c r="E60" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G60" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>47</v>
-      </c>
-      <c r="B61" t="s">
+      <c r="C62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" t="s">
         <v>77</v>
       </c>
-      <c r="C61" t="s">
-        <v>49</v>
-      </c>
-      <c r="E61" t="s">
-        <v>18</v>
-      </c>
-      <c r="F61" t="s">
-        <v>77</v>
-      </c>
-      <c r="G61" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62" t="s">
-        <v>78</v>
-      </c>
-      <c r="C62" t="s">
-        <v>49</v>
-      </c>
-      <c r="E62" t="s">
-        <v>18</v>
-      </c>
       <c r="F62" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="G62" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" hidden="1" x14ac:dyDescent="0.3">
+      <c r="H62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="C63" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E63" t="s">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="F63" t="s">
-        <v>133</v>
-      </c>
-      <c r="G63" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
         <v>136</v>
       </c>
-      <c r="C64" t="s">
-        <v>50</v>
-      </c>
-      <c r="D64" t="s">
-        <v>137</v>
-      </c>
-      <c r="E64" t="s">
-        <v>17</v>
+      <c r="H64" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G63">
+  <autoFilter ref="A1:H63">
     <filterColumn colId="0">
       <filters>
-        <filter val="dataset"/>
+        <filter val="parameters"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:G62">
-      <sortCondition ref="A1:A62"/>
+    <sortState ref="A49:H63">
+      <sortCondition ref="G1:G64"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -27,14 +27,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="142">
   <si>
     <t>parent</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
     <t>description</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
     <t>XML tag name of the exchange</t>
   </si>
   <si>
-    <t>from list: ['from technosphere', 'from environment', 'reference product', 'byproduct', 'to environment']</t>
-  </si>
-  <si>
     <t>1035: unitName</t>
   </si>
   <si>
@@ -218,9 +212,6 @@
     <t>only for tag 'intermediateExchange'</t>
   </si>
   <si>
-    <t>from list: ['intermediateExchange', 'elementaryExchange']</t>
-  </si>
-  <si>
     <t>exchange type</t>
   </si>
   <si>
@@ -251,18 +242,12 @@
     <t>mu</t>
   </si>
   <si>
-    <t>sigma</t>
-  </si>
-  <si>
     <t>minimum</t>
   </si>
   <si>
     <t>maximum</t>
   </si>
   <si>
-    <t>from list: ['normal', 'lognormal', 'triangular', 'uniform', 'undefined']</t>
-  </si>
-  <si>
     <t>XML tag name of the first element after the uncertainty element</t>
   </si>
   <si>
@@ -425,9 +410,6 @@
     <t>public, licensees, results only, restricted</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>in dataset</t>
   </si>
   <si>
@@ -438,6 +420,39 @@
   </si>
   <si>
     <t>1712: unitName</t>
+  </si>
+  <si>
+    <t>intermediateExchange, elementaryExchange</t>
+  </si>
+  <si>
+    <t>from technosphere, from environment, reference product, byproduct, to environment</t>
+  </si>
+  <si>
+    <t>air, water, soil, natural resource</t>
+  </si>
+  <si>
+    <t>1, 2, 3, 4, 5</t>
+  </si>
+  <si>
+    <t>normal, lognormal, triangular, uniform, undefined</t>
+  </si>
+  <si>
+    <t>mandatory for lognormal and normal</t>
+  </si>
+  <si>
+    <t>mandatory for triangular, beta, uniform and undefined</t>
+  </si>
+  <si>
+    <t>mandatory for triangular, beta, gamma, uniform and undefined</t>
+  </si>
+  <si>
+    <t>mandatory for triangular</t>
+  </si>
+  <si>
+    <t>mandatory for lognormal</t>
+  </si>
+  <si>
+    <t>mandatory for undefined</t>
   </si>
 </sst>
 </file>
@@ -766,11 +781,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G65" sqref="G65"/>
+      <selection pane="bottomLeft" activeCell="F48" sqref="F48:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -789,1308 +804,1342 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="H5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H10" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
         <v>18</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G20" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G21" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H21" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>131</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G22" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
-        <v>4</v>
-      </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>132</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>120</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="H24" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="C25" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E25" t="s">
+        <v>59</v>
       </c>
       <c r="F25" t="s">
         <v>16</v>
       </c>
       <c r="G25" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H25" t="s">
-        <v>5</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D27" t="s">
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
         <v>16</v>
       </c>
       <c r="G27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="F28" t="s">
         <v>16</v>
       </c>
+      <c r="G28" t="s">
+        <v>47</v>
+      </c>
       <c r="H28" t="s">
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
       </c>
       <c r="F29" t="s">
         <v>16</v>
       </c>
       <c r="G29" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" t="s">
+        <v>15</v>
+      </c>
+      <c r="G32" t="s">
+        <v>101</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="F33" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" t="s">
+        <v>15</v>
+      </c>
+      <c r="G34" t="s">
+        <v>113</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C35" t="s">
         <v>44</v>
       </c>
-      <c r="F31" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" t="s">
-        <v>101</v>
-      </c>
-      <c r="H31" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>16</v>
-      </c>
-      <c r="G32" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="F35" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" t="s">
         <v>33</v>
       </c>
-      <c r="C33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>103</v>
-      </c>
-      <c r="H33" t="s">
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G36" t="s">
+        <v>97</v>
+      </c>
+      <c r="H36" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
-      <c r="C34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>95</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>45</v>
-      </c>
-      <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s">
-        <v>14</v>
-      </c>
-      <c r="F36" t="s">
-        <v>16</v>
-      </c>
-      <c r="G36" t="s">
-        <v>102</v>
-      </c>
-      <c r="H36" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G37" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G38" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G39" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G40" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" t="s">
         <v>43</v>
       </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>44</v>
-      </c>
       <c r="F41" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G42" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H42" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="H43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="H44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G45" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G46" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="F47" t="s">
+        <v>16</v>
+      </c>
+      <c r="G47" t="s">
+        <v>83</v>
+      </c>
+      <c r="H47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+      <c r="D48" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+      <c r="G48" t="s">
+        <v>105</v>
+      </c>
+      <c r="H48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
+        <v>91</v>
+      </c>
+      <c r="D49" t="s">
+        <v>134</v>
+      </c>
+      <c r="E49" t="s">
+        <v>136</v>
+      </c>
+      <c r="F49" t="s">
+        <v>16</v>
+      </c>
+      <c r="G49" t="s">
+        <v>106</v>
+      </c>
+      <c r="H49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" t="s">
+        <v>110</v>
+      </c>
+      <c r="C50" t="s">
+        <v>91</v>
+      </c>
+      <c r="D50" t="s">
+        <v>134</v>
+      </c>
+      <c r="E50" t="s">
+        <v>136</v>
+      </c>
+      <c r="F50" t="s">
+        <v>16</v>
+      </c>
+      <c r="G50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>111</v>
+      </c>
+      <c r="C51" t="s">
+        <v>91</v>
+      </c>
+      <c r="D51" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" t="s">
+        <v>136</v>
+      </c>
+      <c r="F51" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" t="s">
+        <v>108</v>
+      </c>
+      <c r="H51" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" t="s">
+        <v>112</v>
+      </c>
+      <c r="C52" t="s">
+        <v>91</v>
+      </c>
+      <c r="D52" t="s">
+        <v>134</v>
+      </c>
+      <c r="E52" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" t="s">
+        <v>16</v>
+      </c>
+      <c r="G52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B53" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" t="s">
         <v>43</v>
       </c>
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s">
-        <v>14</v>
-      </c>
-      <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>88</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>42</v>
-      </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="s">
-        <v>96</v>
-      </c>
-      <c r="F48" t="s">
-        <v>16</v>
-      </c>
-      <c r="G48" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" t="s">
-        <v>96</v>
-      </c>
-      <c r="F49" t="s">
-        <v>16</v>
-      </c>
-      <c r="G49" t="s">
-        <v>111</v>
-      </c>
-      <c r="H49" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" t="s">
-        <v>115</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
-      </c>
-      <c r="F50" t="s">
-        <v>16</v>
-      </c>
-      <c r="G50" t="s">
-        <v>112</v>
-      </c>
-      <c r="H50" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>42</v>
-      </c>
-      <c r="B51" t="s">
-        <v>116</v>
-      </c>
-      <c r="C51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" t="s">
-        <v>16</v>
-      </c>
-      <c r="G51" t="s">
-        <v>113</v>
-      </c>
-      <c r="H51" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>42</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="E53" t="s">
+        <v>137</v>
+      </c>
+      <c r="F53" t="s">
+        <v>16</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B54" t="s">
         <v>117</v>
       </c>
-      <c r="C52" t="s">
-        <v>96</v>
-      </c>
-      <c r="F52" t="s">
-        <v>16</v>
-      </c>
-      <c r="G52" t="s">
-        <v>114</v>
-      </c>
-      <c r="H52" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>42</v>
-      </c>
-      <c r="B53" t="s">
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="E54" t="s">
+        <v>136</v>
+      </c>
+      <c r="F54" t="s">
+        <v>16</v>
+      </c>
+      <c r="G54" t="s">
+        <v>74</v>
+      </c>
+      <c r="H54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
+      </c>
+      <c r="C55" t="s">
+        <v>43</v>
+      </c>
+      <c r="E55" t="s">
+        <v>138</v>
+      </c>
+      <c r="F55" t="s">
+        <v>16</v>
+      </c>
+      <c r="G55" t="s">
         <v>76</v>
       </c>
-      <c r="C53" t="s">
-        <v>44</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>82</v>
-      </c>
-      <c r="H53" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>122</v>
-      </c>
-      <c r="C54" t="s">
-        <v>44</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>79</v>
-      </c>
-      <c r="H54" t="s">
+      <c r="H55" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>41</v>
+      </c>
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E56" t="s">
+        <v>139</v>
+      </c>
+      <c r="F56" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" t="s">
+        <v>78</v>
+      </c>
+      <c r="H56" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>41</v>
+      </c>
+      <c r="B57" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>42</v>
-      </c>
-      <c r="B55" t="s">
+      <c r="C57" t="s">
+        <v>43</v>
+      </c>
+      <c r="E57" t="s">
+        <v>140</v>
+      </c>
+      <c r="F57" t="s">
+        <v>16</v>
+      </c>
+      <c r="G57" t="s">
+        <v>70</v>
+      </c>
+      <c r="H57" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" t="s">
+        <v>141</v>
+      </c>
+      <c r="F58" t="s">
+        <v>16</v>
+      </c>
+      <c r="G58" t="s">
+        <v>119</v>
+      </c>
+      <c r="H58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>41</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" t="s">
+        <v>43</v>
+      </c>
+      <c r="E59" t="s">
+        <v>136</v>
+      </c>
+      <c r="F59" t="s">
+        <v>16</v>
+      </c>
+      <c r="G59" t="s">
+        <v>68</v>
+      </c>
+      <c r="H59" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>41</v>
+      </c>
+      <c r="B60" t="s">
+        <v>69</v>
+      </c>
+      <c r="C60" t="s">
+        <v>43</v>
+      </c>
+      <c r="E60" t="s">
+        <v>136</v>
+      </c>
+      <c r="F60" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" t="s">
         <v>75</v>
       </c>
-      <c r="C55" t="s">
-        <v>44</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>81</v>
-      </c>
-      <c r="H55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>126</v>
-      </c>
-      <c r="C56" t="s">
-        <v>44</v>
-      </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>83</v>
-      </c>
-      <c r="H56" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="H60" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>41</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>135</v>
+      </c>
+      <c r="F61" t="s">
+        <v>15</v>
+      </c>
+      <c r="G61" t="s">
         <v>73</v>
       </c>
-      <c r="C57" t="s">
-        <v>44</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>73</v>
-      </c>
-      <c r="H57" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B58" t="s">
-        <v>74</v>
-      </c>
-      <c r="C58" t="s">
-        <v>44</v>
-      </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>74</v>
-      </c>
-      <c r="H58" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>42</v>
-      </c>
-      <c r="B59" t="s">
-        <v>123</v>
-      </c>
-      <c r="C59" t="s">
-        <v>44</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>124</v>
-      </c>
-      <c r="H59" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>42</v>
-      </c>
-      <c r="B60" t="s">
-        <v>71</v>
-      </c>
-      <c r="C60" t="s">
-        <v>44</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>71</v>
-      </c>
-      <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>42</v>
-      </c>
-      <c r="B61" t="s">
-        <v>72</v>
-      </c>
-      <c r="C61" t="s">
-        <v>44</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>80</v>
-      </c>
       <c r="H61" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
     </row>
     <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>122</v>
       </c>
       <c r="C62" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="E62" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="F62" t="s">
-        <v>16</v>
-      </c>
-      <c r="G62" t="s">
-        <v>78</v>
-      </c>
-      <c r="H62" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
-        <v>45</v>
-      </c>
-      <c r="E63" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>16</v>
-      </c>
-      <c r="G64" t="s">
-        <v>136</v>
-      </c>
-      <c r="H64" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="G63" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:H63">
     <filterColumn colId="0">
       <filters>
-        <filter val="parameters"/>
+        <filter val="uncertainty"/>
       </filters>
     </filterColumn>
-    <sortState ref="A49:H63">
-      <sortCondition ref="G1:G64"/>
+    <sortState ref="A20:H30">
+      <sortCondition ref="F1:F64"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ocelot/data/format.xlsx
+++ b/ocelot/data/format.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ocelot\ocelot\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ocelot\ocelot\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="136">
   <si>
     <t>parent</t>
   </si>
@@ -432,6 +432,9 @@
   </si>
   <si>
     <t>mean</t>
+  </si>
+  <si>
+    <t>Ref</t>
   </si>
 </sst>
 </file>
@@ -758,11 +761,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G62"/>
+  <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:A66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2030,6 +2033,74 @@
         <v>80</v>
       </c>
     </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>135</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>104</v>
+      </c>
+      <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" t="s">
+        <v>16</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>44</v>
+      </c>
+      <c r="B65" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" t="s">
+        <v>16</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>135</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G62">
     <sortState ref="A2:G62">
